--- a/natmiOut/YoungD4/LR-pairs_lrc2p/C3-C5ar2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/C3-C5ar2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.05211101684487</v>
+        <v>4.153678333333333</v>
       </c>
       <c r="H2">
-        <v>3.05211101684487</v>
+        <v>12.461035</v>
       </c>
       <c r="I2">
-        <v>0.01912548034354614</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="J2">
-        <v>0.01912548034354614</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.215489804609254</v>
+        <v>0.03770933333333334</v>
       </c>
       <c r="N2">
-        <v>0.215489804609254</v>
+        <v>0.113128</v>
       </c>
       <c r="O2">
-        <v>0.01263735854264372</v>
+        <v>0.002153323738599274</v>
       </c>
       <c r="P2">
-        <v>0.01263735854264372</v>
+        <v>0.002153323738599274</v>
       </c>
       <c r="Q2">
-        <v>0.6576988066656525</v>
+        <v>0.1566324408311111</v>
       </c>
       <c r="R2">
-        <v>0.6576988066656525</v>
+        <v>1.40969196748</v>
       </c>
       <c r="S2">
-        <v>0.0002416955524016773</v>
+        <v>4.88311526941926E-05</v>
       </c>
       <c r="T2">
-        <v>0.0002416955524016773</v>
+        <v>4.883115269419261E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.05211101684487</v>
+        <v>4.153678333333333</v>
       </c>
       <c r="H3">
-        <v>3.05211101684487</v>
+        <v>12.461035</v>
       </c>
       <c r="I3">
-        <v>0.01912548034354614</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="J3">
-        <v>0.01912548034354614</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.76968770146148</v>
+        <v>0.2240396666666666</v>
       </c>
       <c r="N3">
-        <v>7.76968770146148</v>
+        <v>0.6721189999999999</v>
       </c>
       <c r="O3">
-        <v>0.4556518552039259</v>
+        <v>0.01279338269803766</v>
       </c>
       <c r="P3">
-        <v>0.4556518552039259</v>
+        <v>0.01279338269803767</v>
       </c>
       <c r="Q3">
-        <v>23.71394943107468</v>
+        <v>0.9305887092405553</v>
       </c>
       <c r="R3">
-        <v>23.71394943107468</v>
+        <v>8.375298383164997</v>
       </c>
       <c r="S3">
-        <v>0.008714560600203015</v>
+        <v>0.0002901169075531083</v>
       </c>
       <c r="T3">
-        <v>0.008714560600203015</v>
+        <v>0.0002901169075531083</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.05211101684487</v>
+        <v>4.153678333333333</v>
       </c>
       <c r="H4">
-        <v>3.05211101684487</v>
+        <v>12.461035</v>
       </c>
       <c r="I4">
-        <v>0.01912548034354614</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="J4">
-        <v>0.01912548034354614</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.066629948952521</v>
+        <v>7.854348333333333</v>
       </c>
       <c r="N4">
-        <v>9.066629948952521</v>
+        <v>23.563045</v>
       </c>
       <c r="O4">
-        <v>0.5317107862534304</v>
+        <v>0.4485084519498526</v>
       </c>
       <c r="P4">
-        <v>0.5317107862534304</v>
+        <v>0.4485084519498526</v>
       </c>
       <c r="Q4">
-        <v>27.67236115285363</v>
+        <v>32.62443649461944</v>
       </c>
       <c r="R4">
-        <v>27.67236115285363</v>
+        <v>293.6199284515749</v>
       </c>
       <c r="S4">
-        <v>0.01016922419094145</v>
+        <v>0.01017087412784749</v>
       </c>
       <c r="T4">
-        <v>0.01016922419094145</v>
+        <v>0.0101708741278475</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>130.371518409563</v>
+        <v>4.153678333333333</v>
       </c>
       <c r="H5">
-        <v>130.371518409563</v>
+        <v>12.461035</v>
       </c>
       <c r="I5">
-        <v>0.8169486296333808</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="J5">
-        <v>0.8169486296333808</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.215489804609254</v>
+        <v>9.382841000000001</v>
       </c>
       <c r="N5">
-        <v>0.215489804609254</v>
+        <v>28.148523</v>
       </c>
       <c r="O5">
-        <v>0.01263735854264372</v>
+        <v>0.5357902798812642</v>
       </c>
       <c r="P5">
-        <v>0.01263735854264372</v>
+        <v>0.5357902798812642</v>
       </c>
       <c r="Q5">
-        <v>28.09373302868849</v>
+        <v>38.97330336681166</v>
       </c>
       <c r="R5">
-        <v>28.09373302868849</v>
+        <v>350.759730301305</v>
       </c>
       <c r="S5">
-        <v>0.01032407274359848</v>
+        <v>0.01215017347366693</v>
       </c>
       <c r="T5">
-        <v>0.01032407274359848</v>
+        <v>0.01215017347366693</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>130.371518409563</v>
+        <v>4.153678333333333</v>
       </c>
       <c r="H6">
-        <v>130.371518409563</v>
+        <v>12.461035</v>
       </c>
       <c r="I6">
-        <v>0.8169486296333808</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="J6">
-        <v>0.8169486296333808</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>7.76968770146148</v>
+        <v>0.013214</v>
       </c>
       <c r="N6">
-        <v>7.76968770146148</v>
+        <v>0.039642</v>
       </c>
       <c r="O6">
-        <v>0.4556518552039259</v>
+        <v>0.0007545617322462379</v>
       </c>
       <c r="P6">
-        <v>0.4556518552039259</v>
+        <v>0.000754561732246238</v>
       </c>
       <c r="Q6">
-        <v>1012.945983207641</v>
+        <v>0.05488670549666665</v>
       </c>
       <c r="R6">
-        <v>1012.945983207641</v>
+        <v>0.4939803494699999</v>
       </c>
       <c r="S6">
-        <v>0.3722441586987549</v>
+        <v>1.711127709411625E-05</v>
       </c>
       <c r="T6">
-        <v>0.3722441586987549</v>
+        <v>1.711127709411625E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>130.371518409563</v>
+        <v>140.5890806666667</v>
       </c>
       <c r="H7">
-        <v>130.371518409563</v>
+        <v>421.767242</v>
       </c>
       <c r="I7">
-        <v>0.8169486296333808</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="J7">
-        <v>0.8169486296333808</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>9.066629948952521</v>
+        <v>0.03770933333333334</v>
       </c>
       <c r="N7">
-        <v>9.066629948952521</v>
+        <v>0.113128</v>
       </c>
       <c r="O7">
-        <v>0.5317107862534304</v>
+        <v>0.002153323738599274</v>
       </c>
       <c r="P7">
-        <v>0.5317107862534304</v>
+        <v>0.002153323738599274</v>
       </c>
       <c r="Q7">
-        <v>1182.030313302559</v>
+        <v>5.301520505886223</v>
       </c>
       <c r="R7">
-        <v>1182.030313302559</v>
+        <v>47.71368455297601</v>
       </c>
       <c r="S7">
-        <v>0.4343803981910274</v>
+        <v>0.001652782501253747</v>
       </c>
       <c r="T7">
-        <v>0.4343803981910274</v>
+        <v>0.001652782501253747</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,57 +906,57 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.7269460873118</v>
+        <v>140.5890806666667</v>
       </c>
       <c r="H8">
-        <v>6.7269460873118</v>
+        <v>421.767242</v>
       </c>
       <c r="I8">
-        <v>0.04215314398949194</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="J8">
-        <v>0.04215314398949194</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.215489804609254</v>
+        <v>0.2240396666666666</v>
       </c>
       <c r="N8">
-        <v>0.215489804609254</v>
+        <v>0.6721189999999999</v>
       </c>
       <c r="O8">
-        <v>0.01263735854264372</v>
+        <v>0.01279338269803766</v>
       </c>
       <c r="P8">
-        <v>0.01263735854264372</v>
+        <v>0.01279338269803767</v>
       </c>
       <c r="Q8">
-        <v>1.449588297971806</v>
+        <v>31.49753076953311</v>
       </c>
       <c r="R8">
-        <v>1.449588297971806</v>
+        <v>283.477776925798</v>
       </c>
       <c r="S8">
-        <v>0.0005327043942948967</v>
+        <v>0.009819554150698032</v>
       </c>
       <c r="T8">
-        <v>0.0005327043942948967</v>
+        <v>0.009819554150698033</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,57 +968,57 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.7269460873118</v>
+        <v>140.5890806666667</v>
       </c>
       <c r="H9">
-        <v>6.7269460873118</v>
+        <v>421.767242</v>
       </c>
       <c r="I9">
-        <v>0.04215314398949194</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="J9">
-        <v>0.04215314398949194</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.76968770146148</v>
+        <v>7.854348333333333</v>
       </c>
       <c r="N9">
-        <v>7.76968770146148</v>
+        <v>23.563045</v>
       </c>
       <c r="O9">
-        <v>0.4556518552039259</v>
+        <v>0.4485084519498526</v>
       </c>
       <c r="P9">
-        <v>0.4556518552039259</v>
+        <v>0.4485084519498526</v>
       </c>
       <c r="Q9">
-        <v>52.26627028298092</v>
+        <v>1104.235611419099</v>
       </c>
       <c r="R9">
-        <v>52.26627028298092</v>
+        <v>9938.12050277189</v>
       </c>
       <c r="S9">
-        <v>0.01920715826149022</v>
+        <v>0.3442524260329414</v>
       </c>
       <c r="T9">
-        <v>0.01920715826149022</v>
+        <v>0.3442524260329414</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1030,57 +1030,57 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.7269460873118</v>
+        <v>140.5890806666667</v>
       </c>
       <c r="H10">
-        <v>6.7269460873118</v>
+        <v>421.767242</v>
       </c>
       <c r="I10">
-        <v>0.04215314398949194</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="J10">
-        <v>0.04215314398949194</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.066629948952521</v>
+        <v>9.382841000000001</v>
       </c>
       <c r="N10">
-        <v>9.066629948952521</v>
+        <v>28.148523</v>
       </c>
       <c r="O10">
-        <v>0.5317107862534304</v>
+        <v>0.5357902798812642</v>
       </c>
       <c r="P10">
-        <v>0.5317107862534304</v>
+        <v>0.5357902798812642</v>
       </c>
       <c r="Q10">
-        <v>60.99073086021015</v>
+        <v>1319.124990231507</v>
       </c>
       <c r="R10">
-        <v>60.99073086021015</v>
+        <v>11872.12491208357</v>
       </c>
       <c r="S10">
-        <v>0.02241328133370682</v>
+        <v>0.4112455470841757</v>
       </c>
       <c r="T10">
-        <v>0.02241328133370682</v>
+        <v>0.4112455470841757</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>19.0822971237213</v>
+        <v>140.5890806666667</v>
       </c>
       <c r="H11">
-        <v>19.0822971237213</v>
+        <v>421.767242</v>
       </c>
       <c r="I11">
-        <v>0.1195756302884144</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="J11">
-        <v>0.1195756302884144</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.215489804609254</v>
+        <v>0.013214</v>
       </c>
       <c r="N11">
-        <v>0.215489804609254</v>
+        <v>0.039642</v>
       </c>
       <c r="O11">
-        <v>0.01263735854264372</v>
+        <v>0.0007545617322462379</v>
       </c>
       <c r="P11">
-        <v>0.01263735854264372</v>
+        <v>0.000754561732246238</v>
       </c>
       <c r="Q11">
-        <v>4.112040478686432</v>
+        <v>1.857744111929333</v>
       </c>
       <c r="R11">
-        <v>4.112040478686432</v>
+        <v>16.719697007364</v>
       </c>
       <c r="S11">
-        <v>0.001511120112917301</v>
+        <v>0.0005791634601044925</v>
       </c>
       <c r="T11">
-        <v>0.001511120112917301</v>
+        <v>0.0005791634601044925</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>19.0822971237213</v>
+        <v>7.122973333333334</v>
       </c>
       <c r="H12">
-        <v>19.0822971237213</v>
+        <v>21.36892</v>
       </c>
       <c r="I12">
-        <v>0.1195756302884144</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="J12">
-        <v>0.1195756302884144</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>7.76968770146148</v>
+        <v>0.03770933333333334</v>
       </c>
       <c r="N12">
-        <v>7.76968770146148</v>
+        <v>0.113128</v>
       </c>
       <c r="O12">
-        <v>0.4556518552039259</v>
+        <v>0.002153323738599274</v>
       </c>
       <c r="P12">
-        <v>0.4556518552039259</v>
+        <v>0.002153323738599274</v>
       </c>
       <c r="Q12">
-        <v>148.2634892778112</v>
+        <v>0.2686025757511112</v>
       </c>
       <c r="R12">
-        <v>148.2634892778112</v>
+        <v>2.41742318176</v>
       </c>
       <c r="S12">
-        <v>0.05448485777809478</v>
+        <v>8.373854944071552E-05</v>
       </c>
       <c r="T12">
-        <v>0.05448485777809478</v>
+        <v>8.373854944071553E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>19.0822971237213</v>
+        <v>7.122973333333334</v>
       </c>
       <c r="H13">
-        <v>19.0822971237213</v>
+        <v>21.36892</v>
       </c>
       <c r="I13">
-        <v>0.1195756302884144</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="J13">
-        <v>0.1195756302884144</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.066629948952521</v>
+        <v>0.2240396666666666</v>
       </c>
       <c r="N13">
-        <v>9.066629948952521</v>
+        <v>0.6721189999999999</v>
       </c>
       <c r="O13">
-        <v>0.5317107862534304</v>
+        <v>0.01279338269803766</v>
       </c>
       <c r="P13">
-        <v>0.5317107862534304</v>
+        <v>0.01279338269803767</v>
       </c>
       <c r="Q13">
-        <v>173.0121265967421</v>
+        <v>1.595828571275556</v>
       </c>
       <c r="R13">
-        <v>173.0121265967421</v>
+        <v>14.36245714148</v>
       </c>
       <c r="S13">
-        <v>0.06357965239740233</v>
+        <v>0.0004975096360895999</v>
       </c>
       <c r="T13">
-        <v>0.06357965239740233</v>
+        <v>0.0004975096360896001</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.350623411838624</v>
+        <v>7.122973333333334</v>
       </c>
       <c r="H14">
-        <v>0.350623411838624</v>
+        <v>21.36892</v>
       </c>
       <c r="I14">
-        <v>0.002197115745166725</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="J14">
-        <v>0.002197115745166725</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.215489804609254</v>
+        <v>7.854348333333333</v>
       </c>
       <c r="N14">
-        <v>0.215489804609254</v>
+        <v>23.563045</v>
       </c>
       <c r="O14">
-        <v>0.01263735854264372</v>
+        <v>0.4485084519498526</v>
       </c>
       <c r="P14">
-        <v>0.01263735854264372</v>
+        <v>0.4485084519498526</v>
       </c>
       <c r="Q14">
-        <v>0.07555577050853508</v>
+        <v>55.94631372904445</v>
       </c>
       <c r="R14">
-        <v>0.07555577050853508</v>
+        <v>503.5168235614</v>
       </c>
       <c r="S14">
-        <v>2.776573943135973E-05</v>
+        <v>0.01744161665287378</v>
       </c>
       <c r="T14">
-        <v>2.776573943135973E-05</v>
+        <v>0.01744161665287378</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,117 +1337,737 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.350623411838624</v>
+        <v>7.122973333333334</v>
       </c>
       <c r="H15">
-        <v>0.350623411838624</v>
+        <v>21.36892</v>
       </c>
       <c r="I15">
-        <v>0.002197115745166725</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="J15">
-        <v>0.002197115745166725</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.76968770146148</v>
+        <v>9.382841000000001</v>
       </c>
       <c r="N15">
-        <v>7.76968770146148</v>
+        <v>28.148523</v>
       </c>
       <c r="O15">
-        <v>0.4556518552039259</v>
+        <v>0.5357902798812642</v>
       </c>
       <c r="P15">
-        <v>0.4556518552039259</v>
+        <v>0.5357902798812642</v>
       </c>
       <c r="Q15">
-        <v>2.72423441080702</v>
+        <v>66.83372623390669</v>
       </c>
       <c r="R15">
-        <v>2.72423441080702</v>
+        <v>601.5035361051602</v>
       </c>
       <c r="S15">
-        <v>0.001001119865382974</v>
+        <v>0.02083583626439624</v>
       </c>
       <c r="T15">
-        <v>0.001001119865382974</v>
+        <v>0.02083583626439624</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>7.122973333333334</v>
+      </c>
+      <c r="H16">
+        <v>21.36892</v>
+      </c>
+      <c r="I16">
+        <v>0.03888804453304686</v>
+      </c>
+      <c r="J16">
+        <v>0.03888804453304686</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.013214</v>
+      </c>
+      <c r="N16">
+        <v>0.039642</v>
+      </c>
+      <c r="O16">
+        <v>0.0007545617322462379</v>
+      </c>
+      <c r="P16">
+        <v>0.000754561732246238</v>
+      </c>
+      <c r="Q16">
+        <v>0.09412296962666666</v>
+      </c>
+      <c r="R16">
+        <v>0.8471067266400001</v>
+      </c>
+      <c r="S16">
+        <v>2.934343024652468E-05</v>
+      </c>
+      <c r="T16">
+        <v>2.934343024652468E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.350623411838624</v>
-      </c>
-      <c r="H16">
-        <v>0.350623411838624</v>
-      </c>
-      <c r="I16">
-        <v>0.002197115745166725</v>
-      </c>
-      <c r="J16">
-        <v>0.002197115745166725</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>9.066629948952521</v>
-      </c>
-      <c r="N16">
-        <v>9.066629948952521</v>
-      </c>
-      <c r="O16">
-        <v>0.5317107862534304</v>
-      </c>
-      <c r="P16">
-        <v>0.5317107862534304</v>
-      </c>
-      <c r="Q16">
-        <v>3.178972726579982</v>
-      </c>
-      <c r="R16">
-        <v>3.178972726579982</v>
-      </c>
-      <c r="S16">
-        <v>0.001168230140352391</v>
-      </c>
-      <c r="T16">
-        <v>0.001168230140352391</v>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>30.91341533333334</v>
+      </c>
+      <c r="H17">
+        <v>92.74024600000001</v>
+      </c>
+      <c r="I17">
+        <v>0.1687725358349285</v>
+      </c>
+      <c r="J17">
+        <v>0.1687725358349285</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.03770933333333334</v>
+      </c>
+      <c r="N17">
+        <v>0.113128</v>
+      </c>
+      <c r="O17">
+        <v>0.002153323738599274</v>
+      </c>
+      <c r="P17">
+        <v>0.002153323738599274</v>
+      </c>
+      <c r="Q17">
+        <v>1.165724283276445</v>
+      </c>
+      <c r="R17">
+        <v>10.491518549488</v>
+      </c>
+      <c r="S17">
+        <v>0.0003634219078369481</v>
+      </c>
+      <c r="T17">
+        <v>0.0003634219078369483</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>30.91341533333334</v>
+      </c>
+      <c r="H18">
+        <v>92.74024600000001</v>
+      </c>
+      <c r="I18">
+        <v>0.1687725358349285</v>
+      </c>
+      <c r="J18">
+        <v>0.1687725358349285</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.2240396666666666</v>
+      </c>
+      <c r="N18">
+        <v>0.6721189999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.01279338269803766</v>
+      </c>
+      <c r="P18">
+        <v>0.01279338269803767</v>
+      </c>
+      <c r="Q18">
+        <v>6.925831266808222</v>
+      </c>
+      <c r="R18">
+        <v>62.332481401274</v>
+      </c>
+      <c r="S18">
+        <v>0.002159171639854516</v>
+      </c>
+      <c r="T18">
+        <v>0.002159171639854517</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>30.91341533333334</v>
+      </c>
+      <c r="H19">
+        <v>92.74024600000001</v>
+      </c>
+      <c r="I19">
+        <v>0.1687725358349285</v>
+      </c>
+      <c r="J19">
+        <v>0.1687725358349285</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>7.854348333333333</v>
+      </c>
+      <c r="N19">
+        <v>23.563045</v>
+      </c>
+      <c r="O19">
+        <v>0.4485084519498526</v>
+      </c>
+      <c r="P19">
+        <v>0.4485084519498526</v>
+      </c>
+      <c r="Q19">
+        <v>242.8047322010078</v>
+      </c>
+      <c r="R19">
+        <v>2185.24258980907</v>
+      </c>
+      <c r="S19">
+        <v>0.07569590877897481</v>
+      </c>
+      <c r="T19">
+        <v>0.07569590877897482</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>30.91341533333334</v>
+      </c>
+      <c r="H20">
+        <v>92.74024600000001</v>
+      </c>
+      <c r="I20">
+        <v>0.1687725358349285</v>
+      </c>
+      <c r="J20">
+        <v>0.1687725358349285</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>9.382841000000001</v>
+      </c>
+      <c r="N20">
+        <v>28.148523</v>
+      </c>
+      <c r="O20">
+        <v>0.5357902798812642</v>
+      </c>
+      <c r="P20">
+        <v>0.5357902798812642</v>
+      </c>
+      <c r="Q20">
+        <v>290.0556608396287</v>
+      </c>
+      <c r="R20">
+        <v>2610.500947556659</v>
+      </c>
+      <c r="S20">
+        <v>0.09042668421126704</v>
+      </c>
+      <c r="T20">
+        <v>0.09042668421126704</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>30.91341533333334</v>
+      </c>
+      <c r="H21">
+        <v>92.74024600000001</v>
+      </c>
+      <c r="I21">
+        <v>0.1687725358349285</v>
+      </c>
+      <c r="J21">
+        <v>0.1687725358349285</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.013214</v>
+      </c>
+      <c r="N21">
+        <v>0.039642</v>
+      </c>
+      <c r="O21">
+        <v>0.0007545617322462379</v>
+      </c>
+      <c r="P21">
+        <v>0.000754561732246238</v>
+      </c>
+      <c r="Q21">
+        <v>0.4084898702146667</v>
+      </c>
+      <c r="R21">
+        <v>3.676408831932</v>
+      </c>
+      <c r="S21">
+        <v>0.0001273492969951939</v>
+      </c>
+      <c r="T21">
+        <v>0.0001273492969951939</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.3870006666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.161002</v>
+      </c>
+      <c r="I22">
+        <v>0.002112839463995207</v>
+      </c>
+      <c r="J22">
+        <v>0.002112839463995207</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.03770933333333334</v>
+      </c>
+      <c r="N22">
+        <v>0.113128</v>
+      </c>
+      <c r="O22">
+        <v>0.002153323738599274</v>
+      </c>
+      <c r="P22">
+        <v>0.002153323738599274</v>
+      </c>
+      <c r="Q22">
+        <v>0.01459353713955556</v>
+      </c>
+      <c r="R22">
+        <v>0.131341834256</v>
+      </c>
+      <c r="S22">
+        <v>4.549627373670245E-06</v>
+      </c>
+      <c r="T22">
+        <v>4.549627373670247E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.3870006666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.161002</v>
+      </c>
+      <c r="I23">
+        <v>0.002112839463995207</v>
+      </c>
+      <c r="J23">
+        <v>0.002112839463995207</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.2240396666666666</v>
+      </c>
+      <c r="N23">
+        <v>0.6721189999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.01279338269803766</v>
+      </c>
+      <c r="P23">
+        <v>0.01279338269803767</v>
+      </c>
+      <c r="Q23">
+        <v>0.08670350035977778</v>
+      </c>
+      <c r="R23">
+        <v>0.7803315032379999</v>
+      </c>
+      <c r="S23">
+        <v>2.703036384240746E-05</v>
+      </c>
+      <c r="T23">
+        <v>2.703036384240747E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.3870006666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.161002</v>
+      </c>
+      <c r="I24">
+        <v>0.002112839463995207</v>
+      </c>
+      <c r="J24">
+        <v>0.002112839463995207</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>7.854348333333333</v>
+      </c>
+      <c r="N24">
+        <v>23.563045</v>
+      </c>
+      <c r="O24">
+        <v>0.4485084519498526</v>
+      </c>
+      <c r="P24">
+        <v>0.4485084519498526</v>
+      </c>
+      <c r="Q24">
+        <v>3.039638041232223</v>
+      </c>
+      <c r="R24">
+        <v>27.35674237109</v>
+      </c>
+      <c r="S24">
+        <v>0.0009476263572150466</v>
+      </c>
+      <c r="T24">
+        <v>0.0009476263572150468</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3870006666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.161002</v>
+      </c>
+      <c r="I25">
+        <v>0.002112839463995207</v>
+      </c>
+      <c r="J25">
+        <v>0.002112839463995207</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>9.382841000000001</v>
+      </c>
+      <c r="N25">
+        <v>28.148523</v>
+      </c>
+      <c r="O25">
+        <v>0.5357902798812642</v>
+      </c>
+      <c r="P25">
+        <v>0.5357902798812642</v>
+      </c>
+      <c r="Q25">
+        <v>3.631165722227334</v>
+      </c>
+      <c r="R25">
+        <v>32.680491500046</v>
+      </c>
+      <c r="S25">
+        <v>0.001132038847758172</v>
+      </c>
+      <c r="T25">
+        <v>0.001132038847758172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.3870006666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.161002</v>
+      </c>
+      <c r="I26">
+        <v>0.002112839463995207</v>
+      </c>
+      <c r="J26">
+        <v>0.002112839463995207</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.013214</v>
+      </c>
+      <c r="N26">
+        <v>0.039642</v>
+      </c>
+      <c r="O26">
+        <v>0.0007545617322462379</v>
+      </c>
+      <c r="P26">
+        <v>0.000754561732246238</v>
+      </c>
+      <c r="Q26">
+        <v>0.005113826809333333</v>
+      </c>
+      <c r="R26">
+        <v>0.046024441284</v>
+      </c>
+      <c r="S26">
+        <v>1.594267805910436E-06</v>
+      </c>
+      <c r="T26">
+        <v>1.594267805910437E-06</v>
       </c>
     </row>
   </sheetData>
